--- a/data/trans_dic/P5_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de terraza en su vivienda</t>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>44,22%</t>
+          <t>44,63%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,95; 58,87</t>
+          <t>43,19; 59,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,66; 57,52</t>
+          <t>40,83; 57,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,67; 45,46</t>
+          <t>30,73; 45,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,34; 46,88</t>
+          <t>31,97; 48,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,29; 50,48</t>
+          <t>39,37; 50,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,77; 50,17</t>
+          <t>38,93; 50,35</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,17 +697,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>37,52%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,69; 50,99</t>
+          <t>33,27; 51,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,17; 48,84</t>
+          <t>30,31; 49,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 40,64</t>
+          <t>27,56; 41,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 42,83</t>
+          <t>28,42; 43,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 44,22</t>
+          <t>33,21; 44,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 43,91</t>
+          <t>31,65; 44,0</t>
         </is>
       </c>
     </row>
@@ -761,22 +762,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,52%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>38,1%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 45,96</t>
+          <t>32,77; 46,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,77; 50,71</t>
+          <t>32,52; 46,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,04; 43,86</t>
+          <t>33,31; 44,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,93; 40,94</t>
+          <t>30,88; 42,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,74; 43,32</t>
+          <t>34,45; 43,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,44; 43,89</t>
+          <t>33,75; 42,95</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>42,93%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,43; 52,68</t>
+          <t>40,22; 52,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,52; 50,3</t>
+          <t>37,41; 49,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,82; 42,96</t>
+          <t>32,48; 42,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,66; 48,06</t>
+          <t>36,59; 47,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,8; 45,49</t>
+          <t>37,74; 45,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,81; 47,07</t>
+          <t>39,07; 47,32</t>
         </is>
       </c>
     </row>
@@ -926,27 +927,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,49%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,51%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,16; 44,6</t>
+          <t>32,64; 45,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,25; 48,7</t>
+          <t>35,64; 49,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,46; 40,19</t>
+          <t>28,64; 40,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,37; 40,03</t>
+          <t>26,43; 39,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,97; 41,36</t>
+          <t>32,02; 41,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,14; 41,86</t>
+          <t>33,11; 42,65</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>41,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>40,73%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,47; 46,4</t>
+          <t>33,0; 45,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 48,27</t>
+          <t>33,65; 49,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,14; 43,6</t>
+          <t>31,93; 43,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,76; 47,99</t>
+          <t>33,12; 48,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,53; 42,71</t>
+          <t>34,29; 42,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,58; 45,32</t>
+          <t>35,14; 46,18</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1082,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>42,61%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,21%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,5; 45,37</t>
+          <t>39,72; 45,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>39,32; 46,0</t>
+          <t>39,42; 45,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,53; 39,28</t>
+          <t>34,48; 39,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,27; 40,43</t>
+          <t>35,23; 40,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,92; 42,06</t>
+          <t>37,92; 41,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,12; 42,49</t>
+          <t>38,33; 42,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>261180</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>245539</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>175279</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>187763</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>436459</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>433302</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>221543; 304257</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>204993; 287254</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>142223; 212294</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>149880; 226231</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>384143; 491813</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>377919; 488857</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>236083</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>226865</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>176783</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>182997</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>412866</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>409863</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>187433; 289925</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>173746; 281527</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>143006; 214570</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>147514; 223965</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>359439; 479045</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>345678; 480626</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>265594</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>275600</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>268499</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>257372</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>534093</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>532972</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>221504; 311850</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>223185; 319625</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>231225; 307992</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>219991; 301603</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>472015; 592269</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>472082; 600801</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>293618</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>284441</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>266206</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>287828</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>559824</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>572269</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>256803; 337709</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>242142; 322928</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>228403; 302350</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>250869; 325091</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>506374; 612952</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>520814; 630685</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>196976</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>210369</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>173320</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>166336</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>370296</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>376705</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>167112; 231426</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>176532; 246706</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>143890; 204926</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>134561; 201734</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>324763; 416336</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>332571; 428410</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>214492</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>226958</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>274947</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>287376</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>489439</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>514334</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>180465; 250997</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>183442; 270893</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>233459; 319302</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>237690; 346553</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>438175; 544341</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>443780; 583189</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>587.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1169.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1467943</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1469773</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1335034</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1369673</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2802977</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2839445</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1370096; 1580308</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1359769; 1583807</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1245536; 1431502</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1272611; 1472065</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2677739; 2952016</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2706987; 2994154</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>